--- a/fine-tools/java-source-gen/テーブル設計書.xlsx
+++ b/fine-tools/java-source-gen/テーブル設計書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9763BD-FB85-4846-935B-900E62D1B8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1B5FBC9A-E003-2C4A-9EF0-2B92447C0E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="23800" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="データ型">データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -515,10 +516,7 @@
       <t xml:space="preserve">ハンイナイデノ </t>
     </rPh>
     <rPh sb="37" eb="39">
-      <t xml:space="preserve">ゲンテイ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジョウホウ</t>
+      <t>ゲンテイ ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -541,10 +539,7 @@
       <t xml:space="preserve">ケンゲンヲ </t>
     </rPh>
     <rPh sb="30" eb="32">
-      <t xml:space="preserve">ホユウ </t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウホウ</t>
+      <t>ホユウ ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -573,10 +568,7 @@
       <t xml:space="preserve">ハンイナイデノ </t>
     </rPh>
     <rPh sb="36" eb="38">
-      <t xml:space="preserve">ゲンテイ </t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジョウホウ</t>
+      <t>ゲンテイ ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -861,14 +853,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -878,6 +867,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -915,15 +928,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -931,18 +935,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,8 +1283,8 @@
   </sheetPr>
   <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12:AJ12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18:AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.796875" defaultRowHeight="15"/>
@@ -1301,171 +1293,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="12" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="16"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="21" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="21" t="s">
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="39" t="s">
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -1487,46 +1479,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1534,62 +1526,62 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="36">
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17">
         <v>0</v>
       </c>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -1603,64 +1595,64 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="36">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17">
         <v>15</v>
       </c>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5" t="s">
         <v>18</v>
@@ -1672,64 +1664,64 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
     </row>
     <row r="11" spans="1:45" ht="22" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="36">
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17">
         <v>15</v>
       </c>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -1741,64 +1733,64 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="36">
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17">
         <v>15</v>
       </c>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -1810,64 +1802,64 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="15" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="36">
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17">
         <v>254</v>
       </c>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -1879,64 +1871,64 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="36">
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17">
         <v>100</v>
       </c>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -1948,66 +1940,66 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16" t="s">
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
     </row>
     <row r="15" spans="1:45" ht="16" customHeight="1">
       <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="15" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="36">
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17">
         <v>0</v>
       </c>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
         <v>18</v>
@@ -2019,68 +2011,68 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16" t="s">
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="30">
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="19">
         <v>0</v>
       </c>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
     </row>
     <row r="16" spans="1:45" ht="16" customHeight="1">
       <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="15" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="36">
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17">
         <v>0</v>
       </c>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -2090,66 +2082,66 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="15" t="s">
+      <c r="AA16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16" t="s">
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
     </row>
     <row r="17" spans="1:45" ht="32" customHeight="1">
       <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="15" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="36">
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17">
         <v>1</v>
       </c>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="4"/>
       <c r="S17" s="5" t="s">
         <v>18</v>
@@ -2161,68 +2153,68 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="15" t="s">
+      <c r="AA17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16" t="s">
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="30">
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="19">
         <v>0</v>
       </c>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
     </row>
     <row r="18" spans="1:45" ht="16" customHeight="1">
       <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="15" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="36">
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17">
         <v>0</v>
       </c>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5" t="s">
         <v>18</v>
@@ -2234,58 +2226,58 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="15" t="s">
+      <c r="AA18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16" t="s">
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
     </row>
     <row r="19" spans="1:45" ht="16" customHeight="1">
       <c r="A19" s="4">
         <v>11</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="15" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="37"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="18"/>
       <c r="R19" s="4"/>
       <c r="S19" s="5" t="s">
         <v>18</v>
@@ -2297,56 +2289,56 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="15" t="s">
+      <c r="AA19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
     </row>
     <row r="20" spans="1:45" ht="16" customHeight="1">
       <c r="A20" s="4">
         <v>12</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="15" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="36">
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17">
         <v>0</v>
       </c>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="18"/>
       <c r="R20" s="4"/>
       <c r="S20" s="5" t="s">
         <v>18</v>
@@ -2358,56 +2350,56 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="15" t="s">
+      <c r="AA20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
     </row>
     <row r="21" spans="1:45" ht="16" customHeight="1">
       <c r="A21" s="4">
         <v>13</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="15" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="37"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="18"/>
       <c r="R21" s="4"/>
       <c r="S21" s="5" t="s">
         <v>18</v>
@@ -2419,56 +2411,56 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
     </row>
     <row r="22" spans="1:45" ht="16" customHeight="1">
       <c r="A22" s="4">
         <v>14</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="15" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="36">
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17">
         <v>0</v>
       </c>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="4"/>
       <c r="S22" s="5" t="s">
         <v>18</v>
@@ -2480,97 +2472,54 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
-      <c r="AA22" s="15" t="s">
+      <c r="AA22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AM6:AS8"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AA16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AA15:AJ15"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="AA17:AJ17"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AA22:AJ22"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AA20:AJ20"/>
-    <mergeCell ref="AA19:AJ19"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="AA21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="AK6:AL8"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="G6:L8"/>
+    <mergeCell ref="M6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="AA6:AJ8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G11:L11"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="G14:L14"/>
     <mergeCell ref="B20:F20"/>
@@ -2595,30 +2544,73 @@
     <mergeCell ref="AA18:AJ18"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="AK6:AL8"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="G6:L8"/>
-    <mergeCell ref="M6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="AA6:AJ8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="F2:AC2"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AA22:AJ22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AA20:AJ20"/>
+    <mergeCell ref="AA19:AJ19"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="AA21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="AA17:AJ17"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AA15:AJ15"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AM6:AS8"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AM18:AS18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -2655,171 +2647,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="12" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="16"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="21" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="21" t="s">
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="39" t="s">
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -2841,46 +2833,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -2888,64 +2880,64 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="36">
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17">
         <v>0</v>
       </c>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -2959,66 +2951,66 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="36">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17">
         <v>0</v>
       </c>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="4">
         <v>2</v>
       </c>
@@ -3032,56 +3024,56 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
     </row>
     <row r="11" spans="1:45" ht="16" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="36">
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17">
         <v>10</v>
       </c>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -3093,56 +3085,56 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="36">
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17">
         <v>0</v>
       </c>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -3154,56 +3146,56 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="15" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="36">
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17">
         <v>10</v>
       </c>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -3215,56 +3207,56 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="36">
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17">
         <v>0</v>
       </c>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -3276,30 +3268,75 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="G6:L8"/>
+    <mergeCell ref="M6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="AA6:AJ8"/>
+    <mergeCell ref="AK6:AL8"/>
+    <mergeCell ref="AM6:AS8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM13:AS13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:L14"/>
@@ -3314,51 +3351,6 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="AA13:AJ13"/>
     <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="AA6:AJ8"/>
-    <mergeCell ref="AK6:AL8"/>
-    <mergeCell ref="AM6:AS8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="G6:L8"/>
-    <mergeCell ref="M6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -3395,171 +3387,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="12" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="16"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="21" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="21" t="s">
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="39" t="s">
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -3581,46 +3573,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -3628,64 +3620,64 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="36">
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17">
         <v>0</v>
       </c>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -3699,66 +3691,66 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="36">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17">
         <v>15</v>
       </c>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5" t="s">
         <v>18</v>
@@ -3770,66 +3762,66 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
     </row>
     <row r="11" spans="1:45" ht="29.25" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="36">
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17">
         <v>30</v>
       </c>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -3841,56 +3833,56 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="36">
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17">
         <v>10</v>
       </c>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -3902,56 +3894,56 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="15" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="36">
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17">
         <v>0</v>
       </c>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -3963,56 +3955,56 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="36">
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17">
         <v>10</v>
       </c>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -4024,56 +4016,56 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
     </row>
     <row r="15" spans="1:45" ht="16" customHeight="1">
       <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="15" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="36">
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17">
         <v>0</v>
       </c>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
         <v>18</v>
@@ -4085,37 +4077,75 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="G6:L8"/>
+    <mergeCell ref="M6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="AA6:AJ8"/>
+    <mergeCell ref="AK6:AL8"/>
+    <mergeCell ref="AM6:AS8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AA13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
     <mergeCell ref="AM14:AS14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:L15"/>
@@ -4130,51 +4160,13 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="AA14:AJ14"/>
     <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="AA6:AJ8"/>
-    <mergeCell ref="AK6:AL8"/>
-    <mergeCell ref="AM6:AS8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="G6:L8"/>
-    <mergeCell ref="M6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -4211,171 +4203,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="12" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="16"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="21" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="21" t="s">
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="39" t="s">
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -4397,46 +4389,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -4444,64 +4436,64 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="36">
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17">
         <v>0</v>
       </c>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -4515,66 +4507,66 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="36">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17">
         <v>15</v>
       </c>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="4">
         <v>2</v>
       </c>
@@ -4588,56 +4580,56 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
     </row>
     <row r="11" spans="1:45" ht="16" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="36">
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17">
         <v>10</v>
       </c>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -4649,56 +4641,56 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="36">
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17">
         <v>0</v>
       </c>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -4710,56 +4702,56 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="15" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="36">
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17">
         <v>10</v>
       </c>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -4771,56 +4763,56 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="36">
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17">
         <v>0</v>
       </c>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -4832,37 +4824,68 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="G6:L8"/>
+    <mergeCell ref="M6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="AA6:AJ8"/>
+    <mergeCell ref="AK6:AL8"/>
+    <mergeCell ref="AM6:AS8"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="AA11:AJ11"/>
     <mergeCell ref="AM12:AS12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:L13"/>
@@ -4877,44 +4900,13 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA12:AJ12"/>
     <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="AA6:AJ8"/>
-    <mergeCell ref="AK6:AL8"/>
-    <mergeCell ref="AM6:AS8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="G6:L8"/>
-    <mergeCell ref="M6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/fine-tools/java-source-gen/テーブル設計書.xlsx
+++ b/fine-tools/java-source-gen/テーブル設計書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1B5FBC9A-E003-2C4A-9EF0-2B92447C0E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4D0813-A53F-6849-AAD4-707C4EAA4F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="23800" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="データ型">データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="91">
   <si>
     <t>論理テーブル名</t>
     <rPh sb="0" eb="2">
@@ -585,6 +584,22 @@
   </si>
   <si>
     <t>last_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>created_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>created_user_date_time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updated_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updated_user_date_time</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -853,11 +868,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -867,30 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -928,6 +922,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -935,6 +938,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1284,7 +1299,7 @@
   <dimension ref="A1:AS22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18:AJ18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.796875" defaultRowHeight="15"/>
@@ -1293,171 +1308,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="22" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="14" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="28" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="28" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="28" t="s">
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="13" t="s">
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -1479,46 +1494,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1526,62 +1541,62 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17">
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="36">
         <v>0</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -1595,64 +1610,64 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="14" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17">
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="36">
         <v>15</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5" t="s">
         <v>18</v>
@@ -1664,64 +1679,64 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
     </row>
     <row r="11" spans="1:45" ht="22" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17">
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="36">
         <v>15</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -1733,64 +1748,64 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="14" t="s">
+      <c r="AA11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="14" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17">
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="36">
         <v>15</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -1802,64 +1817,64 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17">
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="36">
         <v>254</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -1871,64 +1886,64 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="14" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17">
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="36">
         <v>100</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -1940,66 +1955,66 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="14" t="s">
+      <c r="AA14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15" t="s">
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
     </row>
     <row r="15" spans="1:45" ht="16" customHeight="1">
       <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="14" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17">
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="36">
         <v>0</v>
       </c>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
         <v>18</v>
@@ -2011,68 +2026,68 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="14" t="s">
+      <c r="AA15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15" t="s">
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="19">
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="30">
         <v>0</v>
       </c>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
     </row>
     <row r="16" spans="1:45" ht="16" customHeight="1">
       <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="14" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17">
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="36">
         <v>0</v>
       </c>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -2082,66 +2097,66 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="14" t="s">
+      <c r="AA16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15" t="s">
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
     </row>
     <row r="17" spans="1:45" ht="32" customHeight="1">
       <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="14" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17">
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="36">
         <v>1</v>
       </c>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="4"/>
       <c r="S17" s="5" t="s">
         <v>18</v>
@@ -2153,68 +2168,68 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="14" t="s">
+      <c r="AA17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15" t="s">
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="19">
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="30">
         <v>0</v>
       </c>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
     </row>
     <row r="18" spans="1:45" ht="16" customHeight="1">
       <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="14" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17">
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="36">
         <v>0</v>
       </c>
-      <c r="Q18" s="18"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5" t="s">
         <v>18</v>
@@ -2226,58 +2241,58 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="14" t="s">
+      <c r="AA18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15" t="s">
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="12"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
     </row>
     <row r="19" spans="1:45" ht="16" customHeight="1">
       <c r="A19" s="4">
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17">
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="36">
         <v>15</v>
       </c>
-      <c r="Q19" s="18"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="4"/>
       <c r="S19" s="5" t="s">
         <v>18</v>
@@ -2289,56 +2304,56 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="14" t="s">
+      <c r="AA19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="12"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
     </row>
     <row r="20" spans="1:45" ht="16" customHeight="1">
       <c r="A20" s="4">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17">
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="36">
         <v>0</v>
       </c>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="37"/>
       <c r="R20" s="4"/>
       <c r="S20" s="5" t="s">
         <v>18</v>
@@ -2350,56 +2365,56 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="14" t="s">
+      <c r="AA20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
     </row>
     <row r="21" spans="1:45" ht="16" customHeight="1">
       <c r="A21" s="4">
         <v>13</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="14" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17">
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="36">
         <v>15</v>
       </c>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="37"/>
       <c r="R21" s="4"/>
       <c r="S21" s="5" t="s">
         <v>18</v>
@@ -2411,56 +2426,56 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="14" t="s">
+      <c r="AA21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
     </row>
     <row r="22" spans="1:45" ht="16" customHeight="1">
       <c r="A22" s="4">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="14" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17">
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="36">
         <v>0</v>
       </c>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="4"/>
       <c r="S22" s="5" t="s">
         <v>18</v>
@@ -2472,30 +2487,121 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
-      <c r="AA22" s="14" t="s">
+      <c r="AA22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AM6:AS8"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AA15:AJ15"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="AA17:AJ17"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AA22:AJ22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AA20:AJ20"/>
+    <mergeCell ref="AA19:AJ19"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="AA21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="AA18:AJ18"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="AA13:AJ13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="S1:AC1"/>
     <mergeCell ref="A2:E2"/>
@@ -2520,97 +2626,6 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="AA18:AJ18"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AA22:AJ22"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AA20:AJ20"/>
-    <mergeCell ref="AA19:AJ19"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="AA21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="AA17:AJ17"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AA16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AA15:AJ15"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AM6:AS8"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AM18:AS18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -2647,171 +2662,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="22" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="14" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="28" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="28" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="28" t="s">
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="13" t="s">
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -2833,46 +2848,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -2880,64 +2895,64 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17">
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="36">
         <v>0</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -2951,66 +2966,66 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="14" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17">
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="36">
         <v>0</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="4">
         <v>2</v>
       </c>
@@ -3024,56 +3039,56 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
     </row>
     <row r="11" spans="1:45" ht="16" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17">
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="36">
         <v>10</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -3085,56 +3100,56 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="14" t="s">
+      <c r="AA11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="14" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17">
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="36">
         <v>0</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -3146,56 +3161,56 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17">
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="36">
         <v>10</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -3207,56 +3222,56 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="14" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17">
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="36">
         <v>0</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -3268,45 +3283,58 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="14" t="s">
+      <c r="AA14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:AC2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="G6:L8"/>
-    <mergeCell ref="M6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="AA6:AJ8"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AA13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AK6:AL8"/>
     <mergeCell ref="AM6:AS8"/>
     <mergeCell ref="AK9:AL9"/>
@@ -3323,34 +3351,21 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="G6:L8"/>
+    <mergeCell ref="M6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="AA6:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -3387,171 +3402,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="22" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="14" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="28" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="28" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="28" t="s">
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="13" t="s">
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -3573,46 +3588,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -3620,64 +3635,64 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17">
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="36">
         <v>0</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -3691,66 +3706,66 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="14" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17">
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="36">
         <v>15</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5" t="s">
         <v>18</v>
@@ -3762,66 +3777,66 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
     </row>
     <row r="11" spans="1:45" ht="29.25" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17">
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="36">
         <v>30</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -3833,56 +3848,56 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="14" t="s">
+      <c r="AA11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="14" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17">
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="36">
         <v>10</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -3894,56 +3909,56 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17">
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="36">
         <v>0</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -3955,56 +3970,56 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="14" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17">
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="36">
         <v>10</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -4016,56 +4031,56 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="14" t="s">
+      <c r="AA14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
     </row>
     <row r="15" spans="1:45" ht="16" customHeight="1">
       <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="14" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17">
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="36">
         <v>0</v>
       </c>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
         <v>18</v>
@@ -4077,45 +4092,65 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="14" t="s">
+      <c r="AA15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:AC2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="G6:L8"/>
-    <mergeCell ref="M6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="AA6:AJ8"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AA15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AA13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
     <mergeCell ref="AK6:AL8"/>
     <mergeCell ref="AM6:AS8"/>
     <mergeCell ref="AK9:AL9"/>
@@ -4132,41 +4167,21 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="AA15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="G6:L8"/>
+    <mergeCell ref="M6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="AA6:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -4203,171 +4218,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="22" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="14" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="4" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:45" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:45" ht="24" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="28" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="28" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="28" t="s">
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="13" t="s">
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="3">
         <v>1</v>
       </c>
@@ -4389,46 +4404,46 @@
       <c r="Z7" s="3">
         <v>7</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -4436,64 +4451,64 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17">
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="36">
         <v>0</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="4">
         <v>1</v>
       </c>
@@ -4507,66 +4522,66 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
     </row>
     <row r="10" spans="1:45" ht="29.25" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="14" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17">
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="36">
         <v>15</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="4">
         <v>2</v>
       </c>
@@ -4580,56 +4595,56 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
     </row>
     <row r="11" spans="1:45" ht="16" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17">
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="36">
         <v>10</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
         <v>18</v>
@@ -4641,56 +4656,56 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="14" t="s">
+      <c r="AA11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
     </row>
     <row r="12" spans="1:45" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="14" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17">
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="36">
         <v>0</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
         <v>18</v>
@@ -4702,56 +4717,56 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
     </row>
     <row r="13" spans="1:45" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17">
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="36">
         <v>10</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
         <v>18</v>
@@ -4763,56 +4778,56 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
     </row>
     <row r="14" spans="1:45" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="14" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17">
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="36">
         <v>0</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
         <v>18</v>
@@ -4824,30 +4839,74 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="14" t="s">
+      <c r="AA14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AA13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="AK6:AL8"/>
+    <mergeCell ref="AM6:AS8"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AS10"/>
     <mergeCell ref="R6:R8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:L1"/>
@@ -4863,50 +4922,6 @@
     <mergeCell ref="S6:S8"/>
     <mergeCell ref="T6:Z6"/>
     <mergeCell ref="AA6:AJ8"/>
-    <mergeCell ref="AK6:AL8"/>
-    <mergeCell ref="AM6:AS8"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
